--- a/Demo_Results/data/QSPACE-24_example/003B-df_homo_pdb_only_needs_curation.xlsx
+++ b/Demo_Results/data/QSPACE-24_example/003B-df_homo_pdb_only_needs_curation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,35 +490,6 @@
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>MALTODEXGLUCOSID-MONOMER</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>b0403</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>['P21517_2_603_5z0t_&amp;_NOBFS_0']</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>['7vt9-assembly1.cif_&amp;_NOBFS_0']</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>{'7vt9-assembly1.cif_&amp;_NOBFS_0': 100.0}</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
